--- a/IPL/Data/exp/pstats_tpose_v01_CSK_fyml.xlsx
+++ b/IPL/Data/exp/pstats_tpose_v01_CSK_fyml.xlsx
@@ -2332,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>252</v>
       </c>
       <c r="C51" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D51" t="n">
         <v>110</v>
@@ -3467,7 +3467,7 @@
         <v>67</v>
       </c>
       <c r="F51" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -3479,7 +3479,7 @@
         <v>88</v>
       </c>
       <c r="J51" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -3519,22 +3519,22 @@
         <v>151</v>
       </c>
       <c r="C52" t="n">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D52" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E52" t="n">
         <v>48</v>
       </c>
       <c r="F52" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I52" t="n">
         <v>45</v>
@@ -3721,7 +3721,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" t="n">
         <v>39</v>
@@ -3742,7 +3742,7 @@
         <v>66</v>
       </c>
       <c r="J56" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K56" t="n">
         <v>100</v>
@@ -3768,22 +3768,22 @@
         <v>36</v>
       </c>
       <c r="C57" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E57" t="n">
         <v>42</v>
       </c>
       <c r="F57" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G57" t="n">
         <v>47</v>
       </c>
       <c r="H57" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I57" t="n">
         <v>34</v>
